--- a/src/test/resources/testdata/wsexceldata.xlsx
+++ b/src/test/resources/testdata/wsexceldata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DURJOY\Desktop\selenium class\workspace\SeleniumConcepts\Data\exceldemo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DURJOY\Desktop\selenium class\workspace\Selenium Automation Framework\com.automation.webshop\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405805A4-A254-44B1-A8B2-F965C9CB8C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE73BBCB-0621-4A68-8FCE-F698C1DA2EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>M</t>
   </si>
@@ -33,25 +33,28 @@
     <t>sanbeer</t>
   </si>
   <si>
-    <t>singh</t>
-  </si>
-  <si>
-    <t>ssng@test.com</t>
-  </si>
-  <si>
     <t>pass@123</t>
   </si>
   <si>
-    <t>sanjeer</t>
-  </si>
-  <si>
-    <t>dubai</t>
-  </si>
-  <si>
-    <t>ds@test.com</t>
-  </si>
-  <si>
     <t>Password@123</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>ssadhu123@test.com</t>
+  </si>
+  <si>
+    <t>sadhu</t>
+  </si>
+  <si>
+    <t>kiran</t>
+  </si>
+  <si>
+    <t>kher</t>
+  </si>
+  <si>
+    <t>kirank1@test.com</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -398,7 +401,7 @@
     <col min="1" max="1" width="12.81640625" customWidth="1"/>
     <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" customWidth="1"/>
     <col min="5" max="5" width="16.36328125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
@@ -411,46 +414,46 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{BBC7BD1A-5FFE-4079-9E9A-9E8587B2822F}"/>
-    <hyperlink ref="E1" r:id="rId2" xr:uid="{EB40E0E6-FB15-4C9E-830F-0EE88D3D0F32}"/>
-    <hyperlink ref="F1" r:id="rId3" xr:uid="{9577CC3E-8106-45D0-8B89-592A2EE7014B}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{C04C52EA-3822-49D0-BCAC-77C8C59F186D}"/>
-    <hyperlink ref="E2" r:id="rId5" xr:uid="{2CF68DF1-98AB-4ADF-B3CB-B98D7FC74F74}"/>
-    <hyperlink ref="F2" r:id="rId6" xr:uid="{DAE534D9-1F7B-48A8-B7C3-9C2A8352E41A}"/>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{EB40E0E6-FB15-4C9E-830F-0EE88D3D0F32}"/>
+    <hyperlink ref="F1" r:id="rId2" xr:uid="{9577CC3E-8106-45D0-8B89-592A2EE7014B}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{C04C52EA-3822-49D0-BCAC-77C8C59F186D}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{2CF68DF1-98AB-4ADF-B3CB-B98D7FC74F74}"/>
+    <hyperlink ref="F2" r:id="rId5" xr:uid="{DAE534D9-1F7B-48A8-B7C3-9C2A8352E41A}"/>
+    <hyperlink ref="D1" r:id="rId6" display="https://demowebshop.tricentis.com/customer/info" xr:uid="{C773CAD5-4FC8-4070-A428-3F7328A1A0A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
